--- a/Paleointensity/statistics check2.xlsx
+++ b/Paleointensity/statistics check2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="0" windowWidth="33800" windowHeight="21160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="13700" yWindow="0" windowWidth="24620" windowHeight="21160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Raw data" sheetId="3" r:id="rId1"/>
@@ -23,12 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>TH</t>
-  </si>
-  <si>
-    <t>PT</t>
   </si>
   <si>
     <t>x</t>
@@ -52,6 +49,9 @@
     <t>M</t>
   </si>
   <si>
+    <t>mixed</t>
+  </si>
+  <si>
     <t>sigma</t>
   </si>
   <si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Mean</t>
-  </si>
-  <si>
-    <t>pt_sq</t>
   </si>
   <si>
     <t>N</t>
@@ -95,6 +92,12 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>TH(T, x,y,z)</t>
+  </si>
+  <si>
+    <t>PT(T,x,y,z)</t>
   </si>
 </sst>
 </file>
@@ -153,8 +156,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -238,7 +249,7 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="85">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -277,6 +288,10 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -315,6 +330,10 @@
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -644,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -657,49 +676,49 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" t="s">
-        <v>4</v>
-      </c>
       <c r="Q1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1516,6 +1535,48 @@
         <f t="shared" si="7"/>
         <v>9.2935104459108118E-9</v>
       </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1533,10 +1594,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="C41" sqref="C41:Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1549,46 +1610,46 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
       <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" t="s">
-        <v>4</v>
-      </c>
       <c r="Q1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2419,7 +2480,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <f>SUM(B2:B15)</f>
@@ -2438,7 +2499,7 @@
         <v>1.0324836020534334E-15</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(H2:H15)</f>
@@ -2457,7 +2518,7 @@
         <v>1.0639849398058407E-15</v>
       </c>
       <c r="M17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N17" s="1">
         <f>SUM(N2:N15)</f>
@@ -2478,27 +2539,27 @@
     </row>
     <row r="19" spans="1:17">
       <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
         <v>2</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>3</v>
       </c>
-      <c r="J19" t="s">
-        <v>4</v>
-      </c>
       <c r="K19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" s="2">
         <f>SQRT(B17/N17)</f>
@@ -2540,7 +2601,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="G22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1">
         <f>'Raw data'!B17-'Raw data'!N17*slope!H20</f>
@@ -2561,7 +2622,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="G23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23">
         <f>-H22/H20</f>
@@ -2579,6 +2640,10 @@
         <f t="shared" si="5"/>
         <v>-2.5106097879052478E-8</v>
       </c>
+    </row>
+    <row r="42" spans="7:8">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2608,34 +2673,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -3200,7 +3265,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <f>ABS(MAX(B2:B15)-MIN(B2:B15))</f>
@@ -3219,7 +3284,7 @@
         <v>2.4597244716131576E-8</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17">
         <f>ABS(MAX(H2:H15)-MIN(H2:H15))</f>
@@ -3261,21 +3326,21 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <f>xy_dash!B17/ABS(slope!H22)</f>
@@ -3322,16 +3387,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3348,16 +3413,16 @@
         <v>-2.5253999999999999E-8</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3804,7 +3869,7 @@
     </row>
     <row r="17" spans="11:12">
       <c r="K17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <f>SUM(L3:L15)</f>
